--- a/finadviser/mainapp/import/prediction.xlsx
+++ b/finadviser/mainapp/import/prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuznetsov/python/financial adviser Robo/financial adviser robo/finadviser/mainapp/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72118763-5109-BC4F-A256-6C87E9F954B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCA95A-3885-714A-ABE4-B7C351F91676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1540" windowWidth="28040" windowHeight="17360" xr2:uid="{C7AC7E0E-843A-6342-B9B1-EBBB5D909AD2}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Close short</t>
   </si>
   <si>
-    <t>Hold</t>
-  </si>
-  <si>
     <t>2021-09-08 10:00</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>2021-09-09 23:31</t>
+  </si>
+  <si>
+    <t>Hodl</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,10 +576,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3">
         <v>3000.4560000000001</v>
@@ -596,10 +596,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>4500</v>
@@ -616,10 +616,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3">
         <v>7656.8889799999997</v>
@@ -636,10 +636,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3">
         <v>123.98699999999999</v>
@@ -653,13 +653,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>9000</v>
@@ -676,10 +676,10 @@
         <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3">
         <v>180000</v>
@@ -696,10 +696,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
         <v>5678.8329999999996</v>
@@ -716,10 +716,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
         <v>876</v>
@@ -736,10 +736,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
         <v>628682</v>
@@ -753,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>46754</v>
@@ -776,10 +776,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>666545.99</v>
@@ -796,10 +796,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>877.89800000000002</v>
@@ -816,10 +816,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>876643.7</v>
@@ -836,10 +836,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>79790.876980000001</v>
@@ -853,13 +853,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
         <v>86358.089080000005</v>
@@ -876,10 +876,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3">
         <v>68879</v>
@@ -896,10 +896,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3">
         <v>7897</v>
@@ -916,10 +916,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
         <v>777</v>
@@ -936,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>888</v>
@@ -953,13 +953,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3">
         <v>76544</v>
@@ -976,10 +976,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3">
         <v>766778</v>
